--- a/src/main/webapp/report/excel/InquiryReport.xlsx
+++ b/src/main/webapp/report/excel/InquiryReport.xlsx
@@ -4,21 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sheet8" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Sheet9" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Sheet10" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mh7V0+CnjbMu5bXimIlOfAwcI83sw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi7gc56/oLuJR8xx0EvA9ItN0Hl8w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,42 +55,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -309,130 +264,4 @@
   <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>